--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha3_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha3_firstrun.xlsx
@@ -452,22 +452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.603448275862069</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="C3">
-        <v>0.5010706638115632</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="D3">
-        <v>0.569023569023569</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E3">
-        <v>0.5094736842105263</v>
+        <v>0.5032397408207343</v>
       </c>
       <c r="F3">
-        <v>0.5862068965517241</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.5052410901467506</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5882352941176471</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C4">
-        <v>0.5032537960954447</v>
+        <v>0.5080459770114942</v>
       </c>
       <c r="D4">
-        <v>0.624390243902439</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="E4">
-        <v>0.4818325434439178</v>
+        <v>0.4629032258064516</v>
       </c>
       <c r="F4">
-        <v>0.59375</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="G4">
-        <v>0.4660633484162896</v>
+        <v>0.4914196567862715</v>
       </c>
       <c r="H4">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6141732283464567</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="C5">
-        <v>0.5150214592274678</v>
+        <v>0.5080459770114942</v>
       </c>
       <c r="D5">
-        <v>0.6358381502890174</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="E5">
-        <v>0.4862914862914863</v>
+        <v>0.4566473988439306</v>
       </c>
       <c r="F5">
-        <v>0.5844155844155844</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="G5">
-        <v>0.4684065934065934</v>
+        <v>0.4703389830508475</v>
       </c>
       <c r="H5">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6291390728476821</v>
+        <v>0.6688741721854304</v>
       </c>
       <c r="C6">
-        <v>0.5324384787472036</v>
+        <v>0.5093457943925234</v>
       </c>
       <c r="D6">
-        <v>0.6193548387096774</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="E6">
-        <v>0.4836415362731152</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="F6">
-        <v>0.5352112676056338</v>
+        <v>0.5894039735099338</v>
       </c>
       <c r="G6">
-        <v>0.4804845222072678</v>
+        <v>0.4662162162162162</v>
       </c>
       <c r="H6">
-        <v>0.448</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6441717791411042</v>
+        <v>0.6524390243902439</v>
       </c>
       <c r="C7">
-        <v>0.5356371490280778</v>
+        <v>0.5066964285714286</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="E7">
-        <v>0.4798890429958391</v>
+        <v>0.4798331015299027</v>
       </c>
       <c r="F7">
-        <v>0.5390070921985816</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="G7">
-        <v>0.4880952380952381</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="H7">
-        <v>0.438</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6646706586826348</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C8">
-        <v>0.5211864406779662</v>
+        <v>0.5357917570498916</v>
       </c>
       <c r="D8">
-        <v>0.5095541401273885</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.4907010014306152</v>
+        <v>0.4738330975954738</v>
       </c>
       <c r="F8">
-        <v>0.4855072463768116</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G8">
-        <v>0.4893899204244032</v>
+        <v>0.4879356568364611</v>
       </c>
       <c r="H8">
         <v>0.422</v>
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6833333333333333</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="C9">
-        <v>0.503006012024048</v>
+        <v>0.5362035225048923</v>
       </c>
       <c r="D9">
-        <v>0.5555555555555556</v>
+        <v>0.464968152866242</v>
       </c>
       <c r="E9">
-        <v>0.4775910364145659</v>
+        <v>0.4773662551440329</v>
       </c>
       <c r="F9">
-        <v>0.4718309859154929</v>
+        <v>0.5096774193548387</v>
       </c>
       <c r="G9">
-        <v>0.4960106382978723</v>
+        <v>0.4869451697127937</v>
       </c>
       <c r="H9">
-        <v>0.408</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6954022988505747</v>
+        <v>0.71875</v>
       </c>
       <c r="C10">
-        <v>0.5078740157480315</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D10">
-        <v>0.5748502994011976</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E10">
-        <v>0.476529160739687</v>
+        <v>0.477088948787062</v>
       </c>
       <c r="F10">
-        <v>0.4927536231884058</v>
+        <v>0.5298507462686567</v>
       </c>
       <c r="G10">
-        <v>0.4939597315436242</v>
+        <v>0.4783180026281209</v>
       </c>
       <c r="H10">
-        <v>0.396</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6875</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="C11">
-        <v>0.5167910447761194</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="D11">
-        <v>0.5497076023391813</v>
+        <v>0.4896551724137931</v>
       </c>
       <c r="E11">
-        <v>0.4682080924855491</v>
+        <v>0.463013698630137</v>
       </c>
       <c r="F11">
-        <v>0.4709677419354839</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G11">
-        <v>0.4790823211875844</v>
+        <v>0.4612352168199737</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7055555555555556</v>
+        <v>0.7371134020618557</v>
       </c>
       <c r="C12">
-        <v>0.5229681978798587</v>
+        <v>0.5401069518716578</v>
       </c>
       <c r="D12">
-        <v>0.4945652173913043</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.4753623188405797</v>
+        <v>0.4554317548746518</v>
       </c>
       <c r="F12">
-        <v>0.5126582278481012</v>
+        <v>0.4676258992805755</v>
       </c>
       <c r="G12">
-        <v>0.4829001367989056</v>
+        <v>0.453104359313078</v>
       </c>
       <c r="H12">
-        <v>0.388</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7032967032967034</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C13">
-        <v>0.5116666666666667</v>
+        <v>0.5332197614991482</v>
       </c>
       <c r="D13">
-        <v>0.5397727272727273</v>
+        <v>0.4935897435897436</v>
       </c>
       <c r="E13">
-        <v>0.4776978417266187</v>
+        <v>0.4474053295932679</v>
       </c>
       <c r="F13">
-        <v>0.4093959731543624</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G13">
-        <v>0.477792732166891</v>
+        <v>0.4641909814323608</v>
       </c>
       <c r="H13">
-        <v>0.38</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6847826086956522</v>
+        <v>0.7336956521739131</v>
       </c>
       <c r="C14">
-        <v>0.5201938610662359</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="D14">
-        <v>0.56875</v>
+        <v>0.55625</v>
       </c>
       <c r="E14">
-        <v>0.4754558204768584</v>
+        <v>0.445054945054945</v>
       </c>
       <c r="F14">
-        <v>0.4656488549618321</v>
+        <v>0.4538461538461538</v>
       </c>
       <c r="G14">
-        <v>0.4801061007957559</v>
+        <v>0.4649350649350649</v>
       </c>
       <c r="H14">
-        <v>0.384</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C15">
-        <v>0.529320987654321</v>
+        <v>0.5356600910470409</v>
       </c>
       <c r="D15">
-        <v>0.4723926380368098</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E15">
-        <v>0.467966573816156</v>
+        <v>0.4293552812071331</v>
       </c>
       <c r="F15">
-        <v>0.4545454545454545</v>
+        <v>0.432</v>
       </c>
       <c r="G15">
-        <v>0.4783748361730013</v>
+        <v>0.4695201037613489</v>
       </c>
       <c r="H15">
-        <v>0.374</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7071823204419889</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="C16">
-        <v>0.522962962962963</v>
+        <v>0.5621387283236994</v>
       </c>
       <c r="D16">
-        <v>0.4969325153374233</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="E16">
-        <v>0.4749303621169916</v>
+        <v>0.4182825484764543</v>
       </c>
       <c r="F16">
-        <v>0.5079365079365079</v>
+        <v>0.4921875</v>
       </c>
       <c r="G16">
-        <v>0.4699738903394256</v>
+        <v>0.470976253298153</v>
       </c>
       <c r="H16">
-        <v>0.368</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6939890710382514</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C17">
-        <v>0.5232067510548524</v>
+        <v>0.5497953615279673</v>
       </c>
       <c r="D17">
-        <v>0.4936708860759494</v>
+        <v>0.5032679738562091</v>
       </c>
       <c r="E17">
-        <v>0.4715672676837726</v>
+        <v>0.426027397260274</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.5179856115107914</v>
       </c>
       <c r="G17">
-        <v>0.4607464607464608</v>
+        <v>0.457516339869281</v>
       </c>
       <c r="H17">
-        <v>0.372</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6384180790960452</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>0.5182679296346414</v>
+        <v>0.548051948051948</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="E18">
-        <v>0.4774897680763984</v>
+        <v>0.4368279569892473</v>
       </c>
       <c r="F18">
-        <v>0.4692307692307692</v>
+        <v>0.4715447154471545</v>
       </c>
       <c r="G18">
-        <v>0.4646074646074646</v>
+        <v>0.4538361508452536</v>
       </c>
       <c r="H18">
-        <v>0.362</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6545454545454545</v>
+        <v>0.7485714285714286</v>
       </c>
       <c r="C19">
-        <v>0.5337579617834395</v>
+        <v>0.5505050505050505</v>
       </c>
       <c r="D19">
-        <v>0.5944055944055944</v>
+        <v>0.5413533834586466</v>
       </c>
       <c r="E19">
-        <v>0.4817813765182186</v>
+        <v>0.4401076716016151</v>
       </c>
       <c r="F19">
-        <v>0.4032258064516129</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="G19">
-        <v>0.4632258064516129</v>
+        <v>0.4526854219948849</v>
       </c>
       <c r="H19">
-        <v>0.352</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.654320987654321</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="C20">
-        <v>0.5241545893719807</v>
+        <v>0.5476477683956574</v>
       </c>
       <c r="D20">
-        <v>0.5547445255474452</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>0.4555112881806109</v>
+        <v>0.4372523117569353</v>
       </c>
       <c r="F20">
-        <v>0.4188034188034188</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="G20">
-        <v>0.4654731457800512</v>
+        <v>0.44801026957638</v>
       </c>
       <c r="H20">
-        <v>0.346</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.696969696969697</v>
+        <v>0.7403314917127072</v>
       </c>
       <c r="C21">
-        <v>0.5287896592244419</v>
+        <v>0.5467289719626168</v>
       </c>
       <c r="D21">
-        <v>0.5714285714285714</v>
+        <v>0.5514705882352942</v>
       </c>
       <c r="E21">
-        <v>0.4609164420485175</v>
+        <v>0.4363395225464191</v>
       </c>
       <c r="F21">
-        <v>0.5128205128205128</v>
+        <v>0.4424778761061947</v>
       </c>
       <c r="G21">
-        <v>0.461139896373057</v>
+        <v>0.4302030456852792</v>
       </c>
       <c r="H21">
-        <v>0.344</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.725</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="C22">
-        <v>0.5181818181818182</v>
+        <v>0.5431131019036954</v>
       </c>
       <c r="D22">
-        <v>0.5428571428571428</v>
+        <v>0.6030534351145038</v>
       </c>
       <c r="E22">
-        <v>0.4679144385026738</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="F22">
-        <v>0.4962962962962963</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="G22">
-        <v>0.4627249357326478</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="H22">
-        <v>0.334</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7005649717514124</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C23">
-        <v>0.5152505446623094</v>
+        <v>0.5432900432900433</v>
       </c>
       <c r="D23">
-        <v>0.5874125874125874</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="E23">
-        <v>0.4745989304812834</v>
+        <v>0.4397905759162304</v>
       </c>
       <c r="F23">
-        <v>0.4666666666666667</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="G23">
-        <v>0.4721141374837873</v>
+        <v>0.4133504492939666</v>
       </c>
       <c r="H23">
-        <v>0.322</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7358490566037735</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C24">
-        <v>0.523454157782516</v>
+        <v>0.5408805031446541</v>
       </c>
       <c r="D24">
-        <v>0.58</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="E24">
-        <v>0.467828418230563</v>
+        <v>0.439374185136897</v>
       </c>
       <c r="F24">
-        <v>0.453125</v>
+        <v>0.3949579831932773</v>
       </c>
       <c r="G24">
-        <v>0.4675984752223634</v>
+        <v>0.4082156611039794</v>
       </c>
       <c r="H24">
-        <v>0.33</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6888888888888889</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="C25">
-        <v>0.5191313340227508</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="D25">
-        <v>0.5208333333333334</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E25">
-        <v>0.4746922024623803</v>
+        <v>0.4469798657718121</v>
       </c>
       <c r="F25">
-        <v>0.4508196721311475</v>
+        <v>0.4297520661157025</v>
       </c>
       <c r="G25">
-        <v>0.4702072538860104</v>
+        <v>0.4046094750320102</v>
       </c>
       <c r="H25">
-        <v>0.332</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6903225806451613</v>
+        <v>0.6863905325443787</v>
       </c>
       <c r="C26">
-        <v>0.5302734375</v>
+        <v>0.5381565906838454</v>
       </c>
       <c r="D26">
-        <v>0.5555555555555556</v>
+        <v>0.5310344827586206</v>
       </c>
       <c r="E26">
-        <v>0.4768392370572207</v>
+        <v>0.4490616621983914</v>
       </c>
       <c r="F26">
-        <v>0.4186046511627907</v>
+        <v>0.371900826446281</v>
       </c>
       <c r="G26">
-        <v>0.4619354838709677</v>
+        <v>0.3984674329501915</v>
       </c>
       <c r="H26">
-        <v>0.33</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>0.6568047337278107</v>
       </c>
       <c r="C27">
-        <v>0.5321637426900585</v>
+        <v>0.5441458733205374</v>
       </c>
       <c r="D27">
-        <v>0.5384615384615384</v>
+        <v>0.5448275862068965</v>
       </c>
       <c r="E27">
-        <v>0.473972602739726</v>
+        <v>0.4552845528455284</v>
       </c>
       <c r="F27">
-        <v>0.4426229508196721</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="G27">
-        <v>0.4516971279373368</v>
+        <v>0.4005134788189987</v>
       </c>
       <c r="H27">
-        <v>0.34</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6611111111111111</v>
+        <v>0.6758241758241759</v>
       </c>
       <c r="C28">
-        <v>0.5339147286821705</v>
+        <v>0.549625468164794</v>
       </c>
       <c r="D28">
-        <v>0.4675324675324675</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E28">
-        <v>0.4783216783216783</v>
+        <v>0.4576502732240437</v>
       </c>
       <c r="F28">
-        <v>0.4393939393939394</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="G28">
-        <v>0.4450261780104712</v>
+        <v>0.4002557544757033</v>
       </c>
       <c r="H28">
-        <v>0.336</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7037037037037037</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C29">
-        <v>0.5389048991354467</v>
+        <v>0.5400728597449909</v>
       </c>
       <c r="D29">
-        <v>0.5032258064516129</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="E29">
-        <v>0.4825662482566248</v>
+        <v>0.4535666218034993</v>
       </c>
       <c r="F29">
-        <v>0.45</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="G29">
-        <v>0.4313984168865435</v>
+        <v>0.3878326996197718</v>
       </c>
       <c r="H29">
-        <v>0.342</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7195767195767195</v>
+        <v>0.6898395721925134</v>
       </c>
       <c r="C30">
-        <v>0.5323943661971831</v>
+        <v>0.5488789237668161</v>
       </c>
       <c r="D30">
-        <v>0.5031847133757962</v>
+        <v>0.5723270440251572</v>
       </c>
       <c r="E30">
-        <v>0.4654696132596685</v>
+        <v>0.4472222222222222</v>
       </c>
       <c r="F30">
-        <v>0.4794520547945205</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="G30">
-        <v>0.4302477183833116</v>
+        <v>0.3956743002544529</v>
       </c>
       <c r="H30">
-        <v>0.338</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7231638418079096</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="C31">
-        <v>0.5327272727272727</v>
+        <v>0.5429583702391497</v>
       </c>
       <c r="D31">
-        <v>0.4935897435897436</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E31">
-        <v>0.4569083447332422</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F31">
-        <v>0.5230769230769231</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="G31">
-        <v>0.4276401564537158</v>
+        <v>0.3951715374841169</v>
       </c>
       <c r="H31">
-        <v>0.33</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,22 +1206,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6974358974358974</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C32">
-        <v>0.5376532399299475</v>
+        <v>0.542608695652174</v>
       </c>
       <c r="D32">
-        <v>0.4966887417218543</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E32">
-        <v>0.4633152173913043</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="F32">
-        <v>0.5609756097560976</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="G32">
-        <v>0.4162371134020619</v>
+        <v>0.4</v>
       </c>
       <c r="H32">
         <v>0.336</v>
@@ -1232,22 +1232,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6944444444444444</v>
+        <v>0.6775956284153005</v>
       </c>
       <c r="C33">
-        <v>0.5371329879101899</v>
+        <v>0.5465890183028286</v>
       </c>
       <c r="D33">
-        <v>0.4545454545454545</v>
+        <v>0.5408805031446541</v>
       </c>
       <c r="E33">
-        <v>0.461744966442953</v>
+        <v>0.4487004103967168</v>
       </c>
       <c r="F33">
-        <v>0.504</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G33">
-        <v>0.4114649681528663</v>
+        <v>0.3868159203980099</v>
       </c>
       <c r="H33">
         <v>0.338</v>
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.6702702702702703</v>
+        <v>0.7</v>
       </c>
       <c r="C34">
-        <v>0.5376967688483845</v>
+        <v>0.5458298926507019</v>
       </c>
       <c r="D34">
-        <v>0.5255474452554745</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.4660452729693741</v>
+        <v>0.4551724137931035</v>
       </c>
       <c r="F34">
-        <v>0.4878048780487805</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="G34">
-        <v>0.4152866242038217</v>
+        <v>0.3917396745932415</v>
       </c>
       <c r="H34">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6944444444444444</v>
+        <v>0.6875</v>
       </c>
       <c r="C35">
-        <v>0.5350523771152297</v>
+        <v>0.5420336269015212</v>
       </c>
       <c r="D35">
-        <v>0.5238095238095238</v>
+        <v>0.5033112582781457</v>
       </c>
       <c r="E35">
-        <v>0.4508519003931848</v>
+        <v>0.4636118598382749</v>
       </c>
       <c r="F35">
-        <v>0.4621848739495799</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="G35">
-        <v>0.4177215189873418</v>
+        <v>0.3786163522012579</v>
       </c>
       <c r="H35">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6878612716763006</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="C36">
-        <v>0.5252764612954186</v>
+        <v>0.5445232466509062</v>
       </c>
       <c r="D36">
-        <v>0.5472972972972973</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="E36">
-        <v>0.4524765729585007</v>
+        <v>0.4632152588555858</v>
       </c>
       <c r="F36">
-        <v>0.5098039215686274</v>
+        <v>0.4</v>
       </c>
       <c r="G36">
-        <v>0.4209183673469388</v>
+        <v>0.3852140077821012</v>
       </c>
       <c r="H36">
-        <v>0.326</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6949152542372882</v>
+        <v>0.6902173913043478</v>
       </c>
       <c r="C37">
-        <v>0.5265998457979953</v>
+        <v>0.533179012345679</v>
       </c>
       <c r="D37">
-        <v>0.5733333333333334</v>
+        <v>0.5345911949685535</v>
       </c>
       <c r="E37">
-        <v>0.4587912087912088</v>
+        <v>0.461118690313779</v>
       </c>
       <c r="F37">
-        <v>0.4915254237288136</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G37">
-        <v>0.4223918575063613</v>
+        <v>0.3803363518758086</v>
       </c>
       <c r="H37">
-        <v>0.318</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6949152542372882</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="C38">
-        <v>0.5227272727272727</v>
+        <v>0.5339954163483576</v>
       </c>
       <c r="D38">
-        <v>0.5769230769230769</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="E38">
-        <v>0.4684065934065934</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="F38">
-        <v>0.4881889763779528</v>
+        <v>0.4049586776859504</v>
       </c>
       <c r="G38">
-        <v>0.4221364221364222</v>
+        <v>0.3709884467265726</v>
       </c>
       <c r="H38">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,22 +1388,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6453488372093024</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C39">
-        <v>0.518463810930576</v>
+        <v>0.5175766641735228</v>
       </c>
       <c r="D39">
-        <v>0.559748427672956</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="E39">
-        <v>0.4669365721997301</v>
+        <v>0.4591280653950954</v>
       </c>
       <c r="F39">
-        <v>0.3813559322033898</v>
+        <v>0.3852459016393442</v>
       </c>
       <c r="G39">
-        <v>0.417624521072797</v>
+        <v>0.3695090439276486</v>
       </c>
       <c r="H39">
         <v>0.314</v>
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6666666666666666</v>
+        <v>0.7195767195767195</v>
       </c>
       <c r="C40">
-        <v>0.5256317689530686</v>
+        <v>0.5179750550256786</v>
       </c>
       <c r="D40">
-        <v>0.5414012738853503</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="E40">
-        <v>0.4594594594594595</v>
+        <v>0.4600550964187328</v>
       </c>
       <c r="F40">
-        <v>0.4423076923076923</v>
+        <v>0.392</v>
       </c>
       <c r="G40">
-        <v>0.4255050505050505</v>
+        <v>0.3737113402061856</v>
       </c>
       <c r="H40">
-        <v>0.302</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6686046511627907</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="C41">
-        <v>0.5221363316936051</v>
+        <v>0.5146198830409356</v>
       </c>
       <c r="D41">
-        <v>0.5620915032679739</v>
+        <v>0.5950920245398773</v>
       </c>
       <c r="E41">
-        <v>0.4702702702702703</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="F41">
-        <v>0.5607476635514018</v>
+        <v>0.3821138211382114</v>
       </c>
       <c r="G41">
-        <v>0.4123456790123457</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="H41">
-        <v>0.306</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7183908045977011</v>
+        <v>0.6968085106382979</v>
       </c>
       <c r="C42">
-        <v>0.516514406184118</v>
+        <v>0.5135908440629471</v>
       </c>
       <c r="D42">
-        <v>0.5594405594405595</v>
+        <v>0.6011904761904762</v>
       </c>
       <c r="E42">
-        <v>0.4537931034482758</v>
+        <v>0.4815825375170532</v>
       </c>
       <c r="F42">
-        <v>0.5272727272727272</v>
+        <v>0.4297520661157025</v>
       </c>
       <c r="G42">
-        <v>0.4082914572864322</v>
+        <v>0.3743654822335025</v>
       </c>
       <c r="H42">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6779661016949152</v>
+        <v>0.7193877551020408</v>
       </c>
       <c r="C43">
-        <v>0.5090027700831025</v>
+        <v>0.5126582278481012</v>
       </c>
       <c r="D43">
-        <v>0.5529411764705883</v>
+        <v>0.5870967741935483</v>
       </c>
       <c r="E43">
-        <v>0.4530386740331492</v>
+        <v>0.4774897680763984</v>
       </c>
       <c r="F43">
-        <v>0.528</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="G43">
-        <v>0.4120667522464698</v>
+        <v>0.3639798488664988</v>
       </c>
       <c r="H43">
-        <v>0.29</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,22 +1518,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6779661016949152</v>
+        <v>0.734375</v>
       </c>
       <c r="C44">
-        <v>0.5146958304853042</v>
+        <v>0.5080363382250175</v>
       </c>
       <c r="D44">
-        <v>0.5365853658536586</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E44">
-        <v>0.4549295774647887</v>
+        <v>0.478796169630643</v>
       </c>
       <c r="F44">
-        <v>0.5401459854014599</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="G44">
-        <v>0.4140625</v>
+        <v>0.3692893401015229</v>
       </c>
       <c r="H44">
         <v>0.286</v>
@@ -1544,22 +1544,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6853932584269663</v>
+        <v>0.7107843137254902</v>
       </c>
       <c r="C45">
-        <v>0.5077441077441077</v>
+        <v>0.50580997949419</v>
       </c>
       <c r="D45">
-        <v>0.5625</v>
+        <v>0.5766871165644172</v>
       </c>
       <c r="E45">
-        <v>0.4643356643356643</v>
+        <v>0.4773039889958735</v>
       </c>
       <c r="F45">
-        <v>0.5179856115107914</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="G45">
-        <v>0.4198675496688742</v>
+        <v>0.3610755441741357</v>
       </c>
       <c r="H45">
         <v>0.286</v>
@@ -1570,22 +1570,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7151515151515152</v>
+        <v>0.693069306930693</v>
       </c>
       <c r="C46">
-        <v>0.5130434782608696</v>
+        <v>0.5053835800807537</v>
       </c>
       <c r="D46">
-        <v>0.6387096774193548</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="E46">
-        <v>0.4593837535014005</v>
+        <v>0.4748982360922659</v>
       </c>
       <c r="F46">
-        <v>0.5037593984962406</v>
+        <v>0.5210084033613446</v>
       </c>
       <c r="G46">
-        <v>0.4232309746328438</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="H46">
         <v>0.284</v>
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6868131868131868</v>
+        <v>0.6894736842105263</v>
       </c>
       <c r="C47">
-        <v>0.5123537061118335</v>
+        <v>0.5088757396449705</v>
       </c>
       <c r="D47">
-        <v>0.5294117647058824</v>
+        <v>0.55</v>
       </c>
       <c r="E47">
-        <v>0.4578146611341632</v>
+        <v>0.4751009421265142</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="G47">
-        <v>0.4210526315789473</v>
+        <v>0.3577639751552795</v>
       </c>
       <c r="H47">
-        <v>0.292</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6810810810810811</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C48">
-        <v>0.5139701104613386</v>
+        <v>0.5165907612231621</v>
       </c>
       <c r="D48">
         <v>0.5337837837837838</v>
       </c>
       <c r="E48">
-        <v>0.4665738161559889</v>
+        <v>0.4708276797829037</v>
       </c>
       <c r="F48">
-        <v>0.4682539682539683</v>
+        <v>0.5700934579439252</v>
       </c>
       <c r="G48">
-        <v>0.4211212516297262</v>
+        <v>0.3569620253164557</v>
       </c>
       <c r="H48">
-        <v>0.29</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6353591160220995</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C49">
-        <v>0.5137908915971777</v>
+        <v>0.5194391332058637</v>
       </c>
       <c r="D49">
-        <v>0.5208333333333334</v>
+        <v>0.484472049689441</v>
       </c>
       <c r="E49">
-        <v>0.4617486338797814</v>
+        <v>0.475206611570248</v>
       </c>
       <c r="F49">
-        <v>0.46875</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G49">
-        <v>0.4294954721862872</v>
+        <v>0.3674775928297055</v>
       </c>
       <c r="H49">
-        <v>0.294</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6647058823529411</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C50">
-        <v>0.5182389937106918</v>
+        <v>0.5257284562926224</v>
       </c>
       <c r="D50">
-        <v>0.5128205128205128</v>
+        <v>0.4900662251655629</v>
       </c>
       <c r="E50">
-        <v>0.4577181208053691</v>
+        <v>0.4676753782668501</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="G50">
-        <v>0.4272844272844273</v>
+        <v>0.3823146944083225</v>
       </c>
       <c r="H50">
-        <v>0.292</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6818181818181818</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C51">
-        <v>0.5089561457689932</v>
+        <v>0.5225885225885226</v>
       </c>
       <c r="D51">
-        <v>0.5374149659863946</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E51">
-        <v>0.4489247311827957</v>
+        <v>0.4550408719346049</v>
       </c>
       <c r="F51">
-        <v>0.5294117647058824</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="G51">
-        <v>0.421656050955414</v>
+        <v>0.3684895833333333</v>
       </c>
       <c r="H51">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7173913043478261</v>
+        <v>0.6793478260869565</v>
       </c>
       <c r="C52">
-        <v>0.5080845771144279</v>
+        <v>0.5239248940036342</v>
       </c>
       <c r="D52">
-        <v>0.5789473684210527</v>
+        <v>0.4900662251655629</v>
       </c>
       <c r="E52">
-        <v>0.4484181568088033</v>
+        <v>0.4598639455782313</v>
       </c>
       <c r="F52">
-        <v>0.5294117647058824</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="G52">
-        <v>0.4305912596401028</v>
+        <v>0.3646907216494845</v>
       </c>
       <c r="H52">
-        <v>0.28</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.689119170984456</v>
+        <v>0.643979057591623</v>
       </c>
       <c r="C53">
-        <v>0.5046097111247695</v>
+        <v>0.526284348864994</v>
       </c>
       <c r="D53">
-        <v>0.5178571428571429</v>
+        <v>0.4963503649635037</v>
       </c>
       <c r="E53">
-        <v>0.4474761255115962</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="F53">
-        <v>0.4384615384615385</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="G53">
-        <v>0.4285714285714285</v>
+        <v>0.3689700130378096</v>
       </c>
       <c r="H53">
-        <v>0.28</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="C54">
-        <v>0.5069993913572732</v>
+        <v>0.5245126993502658</v>
       </c>
       <c r="D54">
-        <v>0.515527950310559</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="E54">
-        <v>0.4461325966850829</v>
+        <v>0.4451871657754011</v>
       </c>
       <c r="F54">
-        <v>0.425</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="G54">
-        <v>0.4342783505154639</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="H54">
-        <v>0.282</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.686046511627907</v>
+        <v>0.6022727272727273</v>
       </c>
       <c r="C55">
-        <v>0.5068168346176645</v>
+        <v>0.5278099652375434</v>
       </c>
       <c r="D55">
-        <v>0.5096774193548387</v>
+        <v>0.4863013698630137</v>
       </c>
       <c r="E55">
-        <v>0.4486486486486487</v>
+        <v>0.44</v>
       </c>
       <c r="F55">
-        <v>0.4666666666666667</v>
+        <v>0.48</v>
       </c>
       <c r="G55">
-        <v>0.4316185696361355</v>
+        <v>0.3858064516129032</v>
       </c>
       <c r="H55">
-        <v>0.282</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6941176470588235</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C56">
-        <v>0.5061011040092969</v>
+        <v>0.5279361459521095</v>
       </c>
       <c r="D56">
-        <v>0.5106382978723404</v>
+        <v>0.4968152866242038</v>
       </c>
       <c r="E56">
-        <v>0.44640434192673</v>
+        <v>0.4388586956521739</v>
       </c>
       <c r="F56">
-        <v>0.4392523364485981</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="G56">
-        <v>0.4247448979591837</v>
+        <v>0.3918053777208707</v>
       </c>
       <c r="H56">
-        <v>0.3</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6826347305389222</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="C57">
-        <v>0.504302925989673</v>
+        <v>0.5173000567214975</v>
       </c>
       <c r="D57">
-        <v>0.5135135135135135</v>
+        <v>0.4968152866242038</v>
       </c>
       <c r="E57">
-        <v>0.4522207267833109</v>
+        <v>0.4341926729986432</v>
       </c>
       <c r="F57">
-        <v>0.4677419354838709</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="G57">
-        <v>0.4269377382465057</v>
+        <v>0.3871794871794872</v>
       </c>
       <c r="H57">
-        <v>0.312</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6848484848484848</v>
+        <v>0.6947368421052632</v>
       </c>
       <c r="C58">
-        <v>0.5073363431151241</v>
+        <v>0.5126333520494104</v>
       </c>
       <c r="D58">
-        <v>0.4722222222222222</v>
+        <v>0.5608108108108109</v>
       </c>
       <c r="E58">
-        <v>0.4549125168236878</v>
+        <v>0.4328767123287671</v>
       </c>
       <c r="F58">
-        <v>0.4661016949152542</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="G58">
-        <v>0.4225352112676056</v>
+        <v>0.4017743979721166</v>
       </c>
       <c r="H58">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6529411764705882</v>
+        <v>0.6855670103092784</v>
       </c>
       <c r="C59">
-        <v>0.5066815144766147</v>
+        <v>0.5075461151481274</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.5695364238410596</v>
       </c>
       <c r="E59">
-        <v>0.4577181208053691</v>
+        <v>0.429945054945055</v>
       </c>
       <c r="F59">
-        <v>0.4915254237288136</v>
+        <v>0.4921875</v>
       </c>
       <c r="G59">
-        <v>0.4163473818646232</v>
+        <v>0.4015544041450777</v>
       </c>
       <c r="H59">
-        <v>0.306</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6705202312138728</v>
+        <v>0.675531914893617</v>
       </c>
       <c r="C60">
-        <v>0.5127212389380531</v>
+        <v>0.5071585903083701</v>
       </c>
       <c r="D60">
-        <v>0.5454545454545454</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="E60">
-        <v>0.4465493910690122</v>
+        <v>0.4363885088919289</v>
       </c>
       <c r="F60">
-        <v>0.456896551724138</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="G60">
-        <v>0.4089171974522293</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="H60">
-        <v>0.322</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.688622754491018</v>
+        <v>0.7128205128205128</v>
       </c>
       <c r="C61">
-        <v>0.5117294053464266</v>
+        <v>0.50542888165038</v>
       </c>
       <c r="D61">
-        <v>0.4662162162162162</v>
+        <v>0.551948051948052</v>
       </c>
       <c r="E61">
-        <v>0.4435483870967742</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="F61">
-        <v>0.4601769911504425</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="G61">
-        <v>0.4165605095541401</v>
+        <v>0.38671875</v>
       </c>
       <c r="H61">
-        <v>0.326</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6962025316455697</v>
+        <v>0.7024390243902439</v>
       </c>
       <c r="C62">
-        <v>0.5105008077544426</v>
+        <v>0.5010729613733905</v>
       </c>
       <c r="D62">
-        <v>0.5035460992907801</v>
+        <v>0.5214285714285715</v>
       </c>
       <c r="E62">
-        <v>0.4509536784741144</v>
+        <v>0.4420485175202156</v>
       </c>
       <c r="F62">
-        <v>0.4132231404958678</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="G62">
-        <v>0.4089171974522293</v>
+        <v>0.378343949044586</v>
       </c>
       <c r="H62">
-        <v>0.336</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6946107784431138</v>
+        <v>0.7025641025641025</v>
       </c>
       <c r="C63">
-        <v>0.5098247477429634</v>
+        <v>0.5023872679045093</v>
       </c>
       <c r="D63">
-        <v>0.4492753623188406</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E63">
-        <v>0.4435374149659864</v>
+        <v>0.4563492063492063</v>
       </c>
       <c r="F63">
-        <v>0.392</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="G63">
-        <v>0.4113110539845758</v>
+        <v>0.3710691823899371</v>
       </c>
       <c r="H63">
-        <v>0.336</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7267441860465116</v>
+        <v>0.7081081081081081</v>
       </c>
       <c r="C64">
-        <v>0.5084745762711864</v>
+        <v>0.5055350553505535</v>
       </c>
       <c r="D64">
-        <v>0.5071428571428571</v>
+        <v>0.5118110236220472</v>
       </c>
       <c r="E64">
-        <v>0.4592391304347826</v>
+        <v>0.4566088117489986</v>
       </c>
       <c r="F64">
-        <v>0.3790322580645161</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="G64">
-        <v>0.407979407979408</v>
+        <v>0.3813775510204082</v>
       </c>
       <c r="H64">
-        <v>0.328</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7083333333333334</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="C65">
-        <v>0.5063224446786091</v>
+        <v>0.5049146404552509</v>
       </c>
       <c r="D65">
-        <v>0.5034013605442177</v>
+        <v>0.4620689655172414</v>
       </c>
       <c r="E65">
-        <v>0.4546684709066306</v>
+        <v>0.4485488126649076</v>
       </c>
       <c r="F65">
-        <v>0.3442622950819672</v>
+        <v>0.488</v>
       </c>
       <c r="G65">
-        <v>0.4077419354838709</v>
+        <v>0.3762755102040816</v>
       </c>
       <c r="H65">
-        <v>0.328</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7142857142857143</v>
+        <v>0.7062146892655368</v>
       </c>
       <c r="C66">
-        <v>0.5088357588357588</v>
+        <v>0.5033248081841433</v>
       </c>
       <c r="D66">
-        <v>0.4720496894409938</v>
+        <v>0.456</v>
       </c>
       <c r="E66">
-        <v>0.4552845528455284</v>
+        <v>0.4369189907038513</v>
       </c>
       <c r="F66">
-        <v>0.336</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="G66">
-        <v>0.3938223938223938</v>
+        <v>0.380050505050505</v>
       </c>
       <c r="H66">
-        <v>0.338</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7288135593220338</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="C67">
-        <v>0.5036231884057971</v>
+        <v>0.5065989847715736</v>
       </c>
       <c r="D67">
-        <v>0.4716981132075472</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E67">
-        <v>0.4567901234567901</v>
+        <v>0.437007874015748</v>
       </c>
       <c r="F67">
-        <v>0.3760683760683761</v>
+        <v>0.5</v>
       </c>
       <c r="G67">
-        <v>0.3987179487179487</v>
+        <v>0.385297845373891</v>
       </c>
       <c r="H67">
-        <v>0.326</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6878306878306878</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="C68">
-        <v>0.5002565418163161</v>
+        <v>0.4987354577642893</v>
       </c>
       <c r="D68">
-        <v>0.5540540540540541</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="E68">
-        <v>0.4540466392318244</v>
+        <v>0.4350736278447122</v>
       </c>
       <c r="F68">
-        <v>0.358974358974359</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G68">
-        <v>0.3926767676767677</v>
+        <v>0.3891752577319588</v>
       </c>
       <c r="H68">
-        <v>0.33</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6906077348066298</v>
+        <v>0.7182320441988951</v>
       </c>
       <c r="C69">
-        <v>0.5007696254489482</v>
+        <v>0.5042692114515319</v>
       </c>
       <c r="D69">
-        <v>0.5286624203821656</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="E69">
-        <v>0.435723951285521</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="F69">
-        <v>0.4070796460176991</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="G69">
-        <v>0.3835443037974683</v>
+        <v>0.3888166449934981</v>
       </c>
       <c r="H69">
-        <v>0.33</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6795580110497238</v>
+        <v>0.7584269662921348</v>
       </c>
       <c r="C70">
-        <v>0.5017775520568817</v>
+        <v>0.5048875855327468</v>
       </c>
       <c r="D70">
-        <v>0.5517241379310345</v>
+        <v>0.4538461538461538</v>
       </c>
       <c r="E70">
-        <v>0.437414030261348</v>
+        <v>0.4268929503916449</v>
       </c>
       <c r="F70">
-        <v>0.4824561403508772</v>
+        <v>0.4375</v>
       </c>
       <c r="G70">
-        <v>0.3801020408163265</v>
+        <v>0.3936305732484077</v>
       </c>
       <c r="H70">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7359550561797753</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="C71">
-        <v>0.5030120481927711</v>
+        <v>0.5029069767441861</v>
       </c>
       <c r="D71">
-        <v>0.4966887417218543</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="E71">
-        <v>0.4340136054421769</v>
+        <v>0.42503259452412</v>
       </c>
       <c r="F71">
-        <v>0.5234375</v>
+        <v>0.512</v>
       </c>
       <c r="G71">
-        <v>0.3785166240409207</v>
+        <v>0.3848133848133848</v>
       </c>
       <c r="H71">
-        <v>0.336</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7244897959183674</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="C72">
-        <v>0.5019646365422397</v>
+        <v>0.503132530120482</v>
       </c>
       <c r="D72">
-        <v>0.5100671140939598</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="E72">
-        <v>0.4425133689839572</v>
+        <v>0.4142480211081794</v>
       </c>
       <c r="F72">
-        <v>0.4552845528455284</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="G72">
-        <v>0.3721227621483376</v>
+        <v>0.3772845953002611</v>
       </c>
       <c r="H72">
-        <v>0.344</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7643979057591623</v>
+        <v>0.7041420118343196</v>
       </c>
       <c r="C73">
-        <v>0.5014634146341463</v>
+        <v>0.5</v>
       </c>
       <c r="D73">
-        <v>0.4852941176470588</v>
+        <v>0.5140845070422535</v>
       </c>
       <c r="E73">
-        <v>0.4423841059602649</v>
+        <v>0.417890520694259</v>
       </c>
       <c r="F73">
-        <v>0.5043478260869565</v>
+        <v>0.4715447154471545</v>
       </c>
       <c r="G73">
-        <v>0.3787878787878788</v>
+        <v>0.3866317169069463</v>
       </c>
       <c r="H73">
-        <v>0.338</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7628865979381443</v>
+        <v>0.7167630057803468</v>
       </c>
       <c r="C74">
-        <v>0.5011944577161969</v>
+        <v>0.5071292775665399</v>
       </c>
       <c r="D74">
-        <v>0.4896551724137931</v>
+        <v>0.54</v>
       </c>
       <c r="E74">
-        <v>0.4343302990897269</v>
+        <v>0.4060356652949246</v>
       </c>
       <c r="F74">
-        <v>0.4272727272727272</v>
+        <v>0.4104477611940299</v>
       </c>
       <c r="G74">
-        <v>0.3776397515527951</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="H74">
-        <v>0.324</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7526881720430108</v>
+        <v>0.7</v>
       </c>
       <c r="C75">
-        <v>0.5016627078384798</v>
+        <v>0.502360717658168</v>
       </c>
       <c r="D75">
-        <v>0.4705882352941176</v>
+        <v>0.48125</v>
       </c>
       <c r="E75">
-        <v>0.4361702127659575</v>
+        <v>0.420907840440165</v>
       </c>
       <c r="F75">
-        <v>0.5</v>
+        <v>0.4295774647887324</v>
       </c>
       <c r="G75">
-        <v>0.3882646691635456</v>
+        <v>0.3944223107569721</v>
       </c>
       <c r="H75">
-        <v>0.318</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.76</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C76">
-        <v>0.5039887376818395</v>
+        <v>0.5004694835680751</v>
       </c>
       <c r="D76">
-        <v>0.4615384615384616</v>
+        <v>0.5031055900621118</v>
       </c>
       <c r="E76">
-        <v>0.4378378378378379</v>
+        <v>0.405777166437414</v>
       </c>
       <c r="F76">
-        <v>0.5047619047619047</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="G76">
-        <v>0.3740554156171285</v>
+        <v>0.3878627968337731</v>
       </c>
       <c r="H76">
-        <v>0.328</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7135135135135136</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="C77">
-        <v>0.5044042651831248</v>
+        <v>0.5044124477473293</v>
       </c>
       <c r="D77">
-        <v>0.4421768707482993</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="E77">
-        <v>0.4314789687924016</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="F77">
-        <v>0.4587155963302753</v>
+        <v>0.5</v>
       </c>
       <c r="G77">
-        <v>0.3740554156171285</v>
+        <v>0.3784135240572172</v>
       </c>
       <c r="H77">
-        <v>0.322</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7351351351351352</v>
+        <v>0.7071823204419889</v>
       </c>
       <c r="C78">
-        <v>0.5066912782648824</v>
+        <v>0.5009174311926605</v>
       </c>
       <c r="D78">
-        <v>0.4436619718309859</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="E78">
-        <v>0.4414168937329701</v>
+        <v>0.410738255033557</v>
       </c>
       <c r="F78">
-        <v>0.4347826086956522</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="G78">
-        <v>0.3756345177664975</v>
+        <v>0.3777208706786171</v>
       </c>
       <c r="H78">
-        <v>0.31</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7252747252747253</v>
+        <v>0.672316384180791</v>
       </c>
       <c r="C79">
-        <v>0.50503663003663</v>
+        <v>0.4963369963369964</v>
       </c>
       <c r="D79">
-        <v>0.4557823129251701</v>
+        <v>0.5594405594405595</v>
       </c>
       <c r="E79">
-        <v>0.4343163538873995</v>
+        <v>0.4030054644808743</v>
       </c>
       <c r="F79">
-        <v>0.3969465648854962</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="G79">
-        <v>0.3789607097591888</v>
+        <v>0.3770913770913771</v>
       </c>
       <c r="H79">
-        <v>0.306</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7401129943502824</v>
+        <v>0.6648648648648648</v>
       </c>
       <c r="C80">
-        <v>0.5038548752834467</v>
+        <v>0.4990942028985507</v>
       </c>
       <c r="D80">
-        <v>0.4726027397260274</v>
+        <v>0.5414012738853503</v>
       </c>
       <c r="E80">
-        <v>0.4306864064602961</v>
+        <v>0.4032476319350474</v>
       </c>
       <c r="F80">
-        <v>0.4655172413793103</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="G80">
-        <v>0.3770913770913771</v>
+        <v>0.3813775510204082</v>
       </c>
       <c r="H80">
-        <v>0.3</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7456647398843931</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="C81">
-        <v>0.5047446904654316</v>
+        <v>0.4995515695067265</v>
       </c>
       <c r="D81">
-        <v>0.4539473684210527</v>
+        <v>0.54</v>
       </c>
       <c r="E81">
-        <v>0.4203296703296703</v>
+        <v>0.4070080862533693</v>
       </c>
       <c r="F81">
-        <v>0.4310344827586207</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="G81">
-        <v>0.3652849740932643</v>
+        <v>0.3770913770913771</v>
       </c>
       <c r="H81">
-        <v>0.31</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7159090909090909</v>
+        <v>0.6759776536312849</v>
       </c>
       <c r="C82">
-        <v>0.5053523639607493</v>
+        <v>0.4964476021314387</v>
       </c>
       <c r="D82">
-        <v>0.4472049689440994</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E82">
-        <v>0.4212707182320442</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="F82">
-        <v>0.4857142857142857</v>
+        <v>0.4921875</v>
       </c>
       <c r="G82">
-        <v>0.366580310880829</v>
+        <v>0.3782383419689119</v>
       </c>
       <c r="H82">
-        <v>0.304</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7423312883435583</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="C83">
-        <v>0.5059866962305987</v>
+        <v>0.4962604487461504</v>
       </c>
       <c r="D83">
-        <v>0.472972972972973</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="E83">
         <v>0.4230769230769231</v>
       </c>
       <c r="F83">
-        <v>0.5474452554744526</v>
+        <v>0.4817518248175183</v>
       </c>
       <c r="G83">
-        <v>0.3588390501319261</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="H83">
-        <v>0.31</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7052631578947368</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="C84">
-        <v>0.5028322440087146</v>
+        <v>0.4921739130434782</v>
       </c>
       <c r="D84">
-        <v>0.4832214765100671</v>
+        <v>0.5422535211267606</v>
       </c>
       <c r="E84">
-        <v>0.4201342281879195</v>
+        <v>0.422972972972973</v>
       </c>
       <c r="F84">
-        <v>0.463768115942029</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G84">
-        <v>0.3563968668407311</v>
+        <v>0.3723958333333333</v>
       </c>
       <c r="H84">
-        <v>0.314</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6935483870967742</v>
+        <v>0.6927083333333334</v>
       </c>
       <c r="C85">
-        <v>0.5004351610095735</v>
+        <v>0.4887640449438202</v>
       </c>
       <c r="D85">
-        <v>0.4859154929577465</v>
+        <v>0.5460526315789473</v>
       </c>
       <c r="E85">
-        <v>0.4174372523117569</v>
+        <v>0.4138851802403204</v>
       </c>
       <c r="F85">
-        <v>0.504</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="G85">
-        <v>0.3644501278772379</v>
+        <v>0.3681528662420382</v>
       </c>
       <c r="H85">
-        <v>0.306</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7087912087912088</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="C86">
-        <v>0.5</v>
+        <v>0.4849137931034483</v>
       </c>
       <c r="D86">
-        <v>0.5038759689922481</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="E86">
-        <v>0.4202334630350195</v>
+        <v>0.4187919463087248</v>
       </c>
       <c r="F86">
-        <v>0.5526315789473685</v>
+        <v>0.43</v>
       </c>
       <c r="G86">
-        <v>0.3628428927680798</v>
+        <v>0.3742098609355247</v>
       </c>
       <c r="H86">
-        <v>0.294</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6861702127659575</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C87">
-        <v>0.5004277159965783</v>
+        <v>0.4847835405057865</v>
       </c>
       <c r="D87">
-        <v>0.5111111111111111</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E87">
-        <v>0.4251968503937008</v>
+        <v>0.4217032967032967</v>
       </c>
       <c r="F87">
-        <v>0.5486725663716814</v>
+        <v>0.38</v>
       </c>
       <c r="G87">
-        <v>0.3631778058007566</v>
+        <v>0.3786531130876747</v>
       </c>
       <c r="H87">
-        <v>0.298</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7065217391304348</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="C88">
-        <v>0.4980940279542567</v>
+        <v>0.4847457627118644</v>
       </c>
       <c r="D88">
-        <v>0.4640522875816994</v>
+        <v>0.52</v>
       </c>
       <c r="E88">
-        <v>0.418421052631579</v>
+        <v>0.4236588720770289</v>
       </c>
       <c r="F88">
-        <v>0.472</v>
+        <v>0.408</v>
       </c>
       <c r="G88">
-        <v>0.3646616541353384</v>
+        <v>0.3833543505674653</v>
       </c>
       <c r="H88">
-        <v>0.296</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,22 +2688,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6923076923076923</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="C89">
-        <v>0.4982993197278912</v>
+        <v>0.4888608659100462</v>
       </c>
       <c r="D89">
-        <v>0.5079365079365079</v>
+        <v>0.5197368421052632</v>
       </c>
       <c r="E89">
-        <v>0.4281767955801105</v>
+        <v>0.4247538677918425</v>
       </c>
       <c r="F89">
-        <v>0.4811320754716981</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G89">
-        <v>0.3754889178617992</v>
+        <v>0.3743589743589744</v>
       </c>
       <c r="H89">
         <v>0.288</v>
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7151162790697675</v>
+        <v>0.7245508982035929</v>
       </c>
       <c r="C90">
-        <v>0.498530029399412</v>
+        <v>0.486128364389234</v>
       </c>
       <c r="D90">
-        <v>0.4651162790697674</v>
+        <v>0.5</v>
       </c>
       <c r="E90">
-        <v>0.4164383561643836</v>
+        <v>0.4243243243243243</v>
       </c>
       <c r="F90">
-        <v>0.425531914893617</v>
+        <v>0.4384615384615385</v>
       </c>
       <c r="G90">
-        <v>0.3720626631853786</v>
+        <v>0.369811320754717</v>
       </c>
       <c r="H90">
-        <v>0.28</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7292817679558011</v>
+        <v>0.6875</v>
       </c>
       <c r="C91">
-        <v>0.4966666666666666</v>
+        <v>0.4864197530864198</v>
       </c>
       <c r="D91">
-        <v>0.4652777777777778</v>
+        <v>0.5114503816793893</v>
       </c>
       <c r="E91">
-        <v>0.414804469273743</v>
+        <v>0.4194407456724368</v>
       </c>
       <c r="F91">
-        <v>0.4503816793893129</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="G91">
-        <v>0.3678010471204188</v>
+        <v>0.3729246487867178</v>
       </c>
       <c r="H91">
-        <v>0.288</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7346938775510204</v>
+        <v>0.6804733727810651</v>
       </c>
       <c r="C92">
-        <v>0.4956268221574344</v>
+        <v>0.488659793814433</v>
       </c>
       <c r="D92">
-        <v>0.5138888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="E92">
-        <v>0.4281805745554035</v>
+        <v>0.4142091152815013</v>
       </c>
       <c r="F92">
-        <v>0.4958677685950413</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="G92">
-        <v>0.3681462140992167</v>
+        <v>0.3700887198986058</v>
       </c>
       <c r="H92">
-        <v>0.278</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7193877551020408</v>
+        <v>0.6763005780346821</v>
       </c>
       <c r="C93">
-        <v>0.4933774834437086</v>
+        <v>0.4889885807504079</v>
       </c>
       <c r="D93">
-        <v>0.5222929936305732</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E93">
-        <v>0.4186991869918699</v>
+        <v>0.4214092140921409</v>
       </c>
       <c r="F93">
-        <v>0.4028776978417266</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="G93">
-        <v>0.3632862644415918</v>
+        <v>0.3707006369426751</v>
       </c>
       <c r="H93">
-        <v>0.272</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7297297297297297</v>
+        <v>0.6971428571428572</v>
       </c>
       <c r="C94">
-        <v>0.497952497952498</v>
+        <v>0.4890688259109311</v>
       </c>
       <c r="D94">
-        <v>0.4863013698630137</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="E94">
-        <v>0.4092140921409214</v>
+        <v>0.4324693042291951</v>
       </c>
       <c r="F94">
-        <v>0.4251968503937008</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="G94">
-        <v>0.3725743855109961</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="H94">
-        <v>0.272</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7257142857142858</v>
+        <v>0.689119170984456</v>
       </c>
       <c r="C95">
-        <v>0.4975806451612903</v>
+        <v>0.4893274265002014</v>
       </c>
       <c r="D95">
-        <v>0.4304635761589404</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="E95">
-        <v>0.4130146082337318</v>
+        <v>0.4232876712328767</v>
       </c>
       <c r="F95">
-        <v>0.4609375</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="G95">
-        <v>0.3662864385297845</v>
+        <v>0.3600525624178712</v>
       </c>
       <c r="H95">
-        <v>0.276</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7085714285714285</v>
+        <v>0.7010309278350515</v>
       </c>
       <c r="C96">
-        <v>0.4985938127762153</v>
+        <v>0.4886731391585761</v>
       </c>
       <c r="D96">
-        <v>0.4885496183206107</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="E96">
-        <v>0.4147339699863574</v>
+        <v>0.4323570432357043</v>
       </c>
       <c r="F96">
-        <v>0.4954954954954955</v>
+        <v>0.4552238805970149</v>
       </c>
       <c r="G96">
-        <v>0.36139896373057</v>
+        <v>0.3589403973509934</v>
       </c>
       <c r="H96">
-        <v>0.284</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6726190476190477</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C97">
-        <v>0.4970155192996419</v>
+        <v>0.4865946378551421</v>
       </c>
       <c r="D97">
-        <v>0.4934210526315789</v>
+        <v>0.4493670886075949</v>
       </c>
       <c r="E97">
-        <v>0.4077540106951872</v>
+        <v>0.4346049046321526</v>
       </c>
       <c r="F97">
-        <v>0.4242424242424243</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="G97">
-        <v>0.3580562659846547</v>
+        <v>0.3577023498694517</v>
       </c>
       <c r="H97">
-        <v>0.286</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6745562130177515</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="C98">
-        <v>0.4980345911949686</v>
+        <v>0.4832669322709163</v>
       </c>
       <c r="D98">
-        <v>0.5447761194029851</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="E98">
-        <v>0.401894451962111</v>
+        <v>0.4258760107816711</v>
       </c>
       <c r="F98">
-        <v>0.4112903225806452</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="G98">
-        <v>0.366580310880829</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H98">
-        <v>0.282</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6502732240437158</v>
+        <v>0.7283236994219653</v>
       </c>
       <c r="C99">
-        <v>0.4943159545276362</v>
+        <v>0.4852767962308598</v>
       </c>
       <c r="D99">
-        <v>0.5177304964539007</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="E99">
-        <v>0.3992042440318302</v>
+        <v>0.4214765100671141</v>
       </c>
       <c r="F99">
-        <v>0.488</v>
+        <v>0.525</v>
       </c>
       <c r="G99">
-        <v>0.3686934023285899</v>
+        <v>0.3501896333754741</v>
       </c>
       <c r="H99">
-        <v>0.278</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6888888888888889</v>
+        <v>0.7164948453608248</v>
       </c>
       <c r="C100">
-        <v>0.493909626719057</v>
+        <v>0.4821289821289821</v>
       </c>
       <c r="D100">
-        <v>0.5316455696202531</v>
+        <v>0.5103448275862069</v>
       </c>
       <c r="E100">
-        <v>0.4092140921409214</v>
+        <v>0.4224598930481284</v>
       </c>
       <c r="F100">
-        <v>0.5</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="G100">
-        <v>0.3592736705577173</v>
+        <v>0.3558673469387755</v>
       </c>
       <c r="H100">
-        <v>0.282</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6836158192090396</v>
+        <v>0.7248677248677249</v>
       </c>
       <c r="C101">
-        <v>0.4914330218068536</v>
+        <v>0.4824902723735409</v>
       </c>
       <c r="D101">
-        <v>0.5696969696969697</v>
+        <v>0.5448717948717948</v>
       </c>
       <c r="E101">
-        <v>0.420249653259362</v>
+        <v>0.4308724832214765</v>
       </c>
       <c r="F101">
-        <v>0.4573643410852713</v>
+        <v>0.4596774193548387</v>
       </c>
       <c r="G101">
-        <v>0.3647058823529412</v>
+        <v>0.3569620253164557</v>
       </c>
       <c r="H101">
-        <v>0.266</v>
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
